--- a/public/excelfile/paymentrecord.xlsx
+++ b/public/excelfile/paymentrecord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel.paul\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel.paul\Desktop\NewNiwa\niwaebs\public\excelfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>rrr</t>
   </si>
@@ -32,9 +32,6 @@
     <t>invoicenumber</t>
   </si>
   <si>
-    <t>employer_id</t>
-  </si>
-  <si>
     <t>payment_type</t>
   </si>
   <si>
@@ -62,19 +59,13 @@
     <t>transaction_id</t>
   </si>
   <si>
-    <t>service_id</t>
-  </si>
-  <si>
-    <t>sub_service_id</t>
-  </si>
-  <si>
-    <t>service_application_id</t>
-  </si>
-  <si>
-    <t>branch_id</t>
-  </si>
-  <si>
-    <t>service_type_id</t>
+    <t>serviceapplication_code</t>
+  </si>
+  <si>
+    <t>NIRC663390af6468a</t>
+  </si>
+  <si>
+    <t>areaoffice_id</t>
   </si>
 </sst>
 </file>
@@ -82,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,7 +108,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -415,63 +406,49 @@
     <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -504,18 +481,6 @@
         <v>254554</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
         <v>1</v>
       </c>
     </row>
